--- a/Code/Results/Cases/Case_8_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.15464277885997</v>
+        <v>12.22104799240545</v>
       </c>
       <c r="C2">
-        <v>7.569669261499154</v>
+        <v>8.066802228392168</v>
       </c>
       <c r="D2">
-        <v>6.629782039937142</v>
+        <v>6.950532838704763</v>
       </c>
       <c r="E2">
-        <v>9.477819263292977</v>
+        <v>9.794223537567001</v>
       </c>
       <c r="F2">
-        <v>24.24173999325961</v>
+        <v>23.0373692559006</v>
       </c>
       <c r="G2">
-        <v>2.119354168023627</v>
+        <v>6.36641956224355</v>
       </c>
       <c r="H2">
-        <v>2.800861001592263</v>
+        <v>2.53930230263613</v>
       </c>
       <c r="I2">
-        <v>3.436049334592819</v>
+        <v>3.08515205420802</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.2297446604738</v>
+        <v>15.10699214765924</v>
       </c>
       <c r="L2">
-        <v>6.288413686666031</v>
+        <v>12.40980475917801</v>
       </c>
       <c r="M2">
-        <v>11.16196572435314</v>
+        <v>9.919031141737301</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.391165352959647</v>
       </c>
       <c r="O2">
-        <v>11.24132595250394</v>
+        <v>11.41736121066229</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>17.71114071248381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.34532429595296</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.58090177288889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.40452447835912</v>
+        <v>11.51096990191729</v>
       </c>
       <c r="C3">
-        <v>7.130874278249403</v>
+        <v>7.543542227064259</v>
       </c>
       <c r="D3">
-        <v>6.318758713787136</v>
+        <v>6.643033886910883</v>
       </c>
       <c r="E3">
-        <v>9.129319147088594</v>
+        <v>9.469973679896084</v>
       </c>
       <c r="F3">
-        <v>23.9692987846728</v>
+        <v>22.78048287195709</v>
       </c>
       <c r="G3">
-        <v>2.122904573039121</v>
+        <v>6.833180408361677</v>
       </c>
       <c r="H3">
-        <v>3.00491576063661</v>
+        <v>2.72417209949475</v>
       </c>
       <c r="I3">
-        <v>3.583234919075037</v>
+        <v>3.205274533225726</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.3166103774176</v>
+        <v>15.20251612655757</v>
       </c>
       <c r="L3">
-        <v>6.187509363326246</v>
+        <v>12.5566964544062</v>
       </c>
       <c r="M3">
-        <v>10.54706343360782</v>
+        <v>9.94838694721339</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.304118004572318</v>
       </c>
       <c r="O3">
-        <v>10.70935551984893</v>
+        <v>10.80416840623912</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.69550127154148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.79735326485741</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.56476746877564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.91621123475475</v>
+        <v>11.04952028500168</v>
       </c>
       <c r="C4">
-        <v>6.85109541008705</v>
+        <v>7.209020270616762</v>
       </c>
       <c r="D4">
-        <v>6.121282742344961</v>
+        <v>6.448920801685085</v>
       </c>
       <c r="E4">
-        <v>8.908354743059013</v>
+        <v>9.265357349846953</v>
       </c>
       <c r="F4">
-        <v>23.8068874446264</v>
+        <v>22.62496102622569</v>
       </c>
       <c r="G4">
-        <v>2.12515987357508</v>
+        <v>7.129796403465011</v>
       </c>
       <c r="H4">
-        <v>3.134915458874096</v>
+        <v>2.842033567947418</v>
       </c>
       <c r="I4">
-        <v>3.677606467263765</v>
+        <v>3.282712320876283</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.37320026086829</v>
+        <v>15.26268683713831</v>
       </c>
       <c r="L4">
-        <v>6.123846273220325</v>
+        <v>12.64844664837775</v>
       </c>
       <c r="M4">
-        <v>10.1505162463058</v>
+        <v>9.981826666688081</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.249290200868479</v>
       </c>
       <c r="O4">
-        <v>10.37023247058294</v>
+        <v>10.40941077500083</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.6910002943232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.44764449593459</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.55766396214326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.70766682279752</v>
+        <v>10.85265558443958</v>
       </c>
       <c r="C5">
-        <v>6.744282784008418</v>
+        <v>7.079168546878288</v>
       </c>
       <c r="D5">
-        <v>6.041523491742601</v>
+        <v>6.370730831329952</v>
       </c>
       <c r="E5">
-        <v>8.817015022184242</v>
+        <v>9.181040927056968</v>
       </c>
       <c r="F5">
-        <v>23.73338210002919</v>
+        <v>22.55371866082388</v>
       </c>
       <c r="G5">
-        <v>2.126104095430774</v>
+        <v>7.254024564060148</v>
       </c>
       <c r="H5">
-        <v>3.189313977673563</v>
+        <v>2.891364382898694</v>
       </c>
       <c r="I5">
-        <v>3.719655456793215</v>
+        <v>3.318312217666604</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.3910750461667</v>
+        <v>15.28186167049074</v>
       </c>
       <c r="L5">
-        <v>6.097030278041508</v>
+        <v>12.68074646304089</v>
       </c>
       <c r="M5">
-        <v>9.985830064258735</v>
+        <v>9.996205130317279</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.226187705310829</v>
       </c>
       <c r="O5">
-        <v>10.2306421737912</v>
+        <v>10.2455955210385</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.68422591925071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.30350297904519</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.5493420859289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.66944044991541</v>
+        <v>10.81656485837233</v>
       </c>
       <c r="C6">
-        <v>6.738354186289714</v>
+        <v>7.069332073561887</v>
       </c>
       <c r="D6">
-        <v>6.030961233322513</v>
+        <v>6.360299252593526</v>
       </c>
       <c r="E6">
-        <v>8.802215799688726</v>
+        <v>9.167419612834287</v>
       </c>
       <c r="F6">
-        <v>23.7107678025341</v>
+        <v>22.5315977350792</v>
       </c>
       <c r="G6">
-        <v>2.126269301426616</v>
+        <v>7.275784351388014</v>
       </c>
       <c r="H6">
-        <v>3.198692260059533</v>
+        <v>2.899860789390022</v>
       </c>
       <c r="I6">
-        <v>3.729999970025032</v>
+        <v>3.328288283712387</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.38678030816506</v>
+        <v>15.27808866576607</v>
       </c>
       <c r="L6">
-        <v>6.091999580464837</v>
+        <v>12.67944805040365</v>
       </c>
       <c r="M6">
-        <v>9.960178066758852</v>
+        <v>9.995036033966393</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.221818056919443</v>
       </c>
       <c r="O6">
-        <v>10.20925292698633</v>
+        <v>10.22001608419881</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17.67560731553603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.28128208331627</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.54053483542395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.90494060419162</v>
+        <v>11.04149885286508</v>
       </c>
       <c r="C7">
-        <v>6.881652182459162</v>
+        <v>7.221587919101438</v>
       </c>
       <c r="D7">
-        <v>6.127656294807533</v>
+        <v>6.468811658311075</v>
       </c>
       <c r="E7">
-        <v>8.908395177824682</v>
+        <v>9.269726195005191</v>
       </c>
       <c r="F7">
-        <v>23.77740691229772</v>
+        <v>22.54635504993092</v>
       </c>
       <c r="G7">
-        <v>2.125191951580572</v>
+        <v>7.181725746866872</v>
       </c>
       <c r="H7">
-        <v>3.136374946529069</v>
+        <v>2.844627682863058</v>
       </c>
       <c r="I7">
-        <v>3.686898030672437</v>
+        <v>3.295036354397556</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.35349570913791</v>
+        <v>15.22034815838293</v>
       </c>
       <c r="L7">
-        <v>6.121994621579987</v>
+        <v>12.60923522324113</v>
       </c>
       <c r="M7">
-        <v>10.15361880836187</v>
+        <v>9.957522231544552</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.245796024049778</v>
       </c>
       <c r="O7">
-        <v>10.37363342973024</v>
+        <v>10.40814105900323</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.67028878336782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.45187596085182</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.50111838461313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.89136158425443</v>
+        <v>11.97999914081764</v>
       </c>
       <c r="C8">
-        <v>7.460004249587124</v>
+        <v>7.874061923587377</v>
       </c>
       <c r="D8">
-        <v>6.533221217292271</v>
+        <v>6.898345154964137</v>
       </c>
       <c r="E8">
-        <v>9.360787898006235</v>
+        <v>9.699056321035155</v>
       </c>
       <c r="F8">
-        <v>24.10986550466351</v>
+        <v>22.75145480997415</v>
       </c>
       <c r="G8">
-        <v>2.120586941461856</v>
+        <v>6.764454785733681</v>
       </c>
       <c r="H8">
-        <v>2.871157691489765</v>
+        <v>2.606957693010883</v>
       </c>
       <c r="I8">
-        <v>3.497062742606476</v>
+        <v>3.143190919958398</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.23276857173438</v>
+        <v>15.0384443448082</v>
       </c>
       <c r="L8">
-        <v>6.252086742105913</v>
+        <v>12.37318808836335</v>
       </c>
       <c r="M8">
-        <v>10.96054831870222</v>
+        <v>9.85905365285249</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.353995050065098</v>
       </c>
       <c r="O8">
-        <v>11.06711618610345</v>
+        <v>11.20325449591954</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17.67767164391729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.16877325074154</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.43066218272697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.61882377056723</v>
+        <v>13.61991141741901</v>
       </c>
       <c r="C9">
-        <v>8.459267364719288</v>
+        <v>9.059609200526902</v>
       </c>
       <c r="D9">
-        <v>7.26160885200163</v>
+        <v>7.631491249611757</v>
       </c>
       <c r="E9">
-        <v>10.18725125929262</v>
+        <v>10.475787327445</v>
       </c>
       <c r="F9">
-        <v>24.84878240206021</v>
+        <v>23.40026981855356</v>
       </c>
       <c r="G9">
-        <v>2.112109548174087</v>
+        <v>5.728557074369991</v>
       </c>
       <c r="H9">
-        <v>2.386544041305669</v>
+        <v>2.169167598659606</v>
       </c>
       <c r="I9">
-        <v>3.141836935497626</v>
+        <v>2.852564939662819</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.05816769049717</v>
+        <v>14.8123441466279</v>
       </c>
       <c r="L9">
-        <v>6.495813942066373</v>
+        <v>12.02999482384381</v>
       </c>
       <c r="M9">
-        <v>12.38115477468865</v>
+        <v>9.860726461147131</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.563804136435667</v>
       </c>
       <c r="O9">
-        <v>12.31430989113895</v>
+        <v>12.62111402511668</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.77049977283765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.45195862112801</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.48234821303323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.7653694766611</v>
+        <v>14.72676595375078</v>
       </c>
       <c r="C10">
-        <v>9.14141871657419</v>
+        <v>9.772707405552861</v>
       </c>
       <c r="D10">
-        <v>7.691243636377221</v>
+        <v>8.133421624858141</v>
       </c>
       <c r="E10">
-        <v>10.57834286424287</v>
+        <v>10.86065673590851</v>
       </c>
       <c r="F10">
-        <v>25.22962818929599</v>
+        <v>23.452735340554</v>
       </c>
       <c r="G10">
-        <v>2.106340005573833</v>
+        <v>6.046568549057902</v>
       </c>
       <c r="H10">
-        <v>2.083751371463447</v>
+        <v>1.90555506303471</v>
       </c>
       <c r="I10">
-        <v>2.909011362998541</v>
+        <v>2.672100293744049</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.8715982602576</v>
+        <v>14.46520973331954</v>
       </c>
       <c r="L10">
-        <v>6.594733291552648</v>
+        <v>11.65420282739965</v>
       </c>
       <c r="M10">
-        <v>13.33611452872059</v>
+        <v>9.778111125079013</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.632921158242687</v>
       </c>
       <c r="O10">
-        <v>13.0686323248584</v>
+        <v>13.55535329272458</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.76619600094424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.23080986079228</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.24960144118634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.37856015201609</v>
+        <v>15.37025735653413</v>
       </c>
       <c r="C11">
-        <v>9.365846063701081</v>
+        <v>9.782996539461797</v>
       </c>
       <c r="D11">
-        <v>7.27111465037963</v>
+        <v>7.841195193757917</v>
       </c>
       <c r="E11">
-        <v>9.279198757146215</v>
+        <v>9.604080146990746</v>
       </c>
       <c r="F11">
-        <v>23.90629725894923</v>
+        <v>21.66201284838521</v>
       </c>
       <c r="G11">
-        <v>2.104716462605575</v>
+        <v>9.115286284483943</v>
       </c>
       <c r="H11">
-        <v>2.992000112339474</v>
+        <v>2.883221317834995</v>
       </c>
       <c r="I11">
-        <v>2.857709268708678</v>
+        <v>2.649078369347834</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.20006374375409</v>
+        <v>13.65327626029376</v>
       </c>
       <c r="L11">
-        <v>6.101969034321013</v>
+        <v>11.060302850347</v>
       </c>
       <c r="M11">
-        <v>13.7967229641053</v>
+        <v>9.174208981655674</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.134422479452581</v>
       </c>
       <c r="O11">
-        <v>12.58378828124466</v>
+        <v>13.96169215854709</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.96435812776965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.74489110937287</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.12487967244701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.6763042155202</v>
+        <v>15.6938600041201</v>
       </c>
       <c r="C12">
-        <v>9.377121738519708</v>
+        <v>9.655472273925357</v>
       </c>
       <c r="D12">
-        <v>6.81365344219132</v>
+        <v>7.434101867851642</v>
       </c>
       <c r="E12">
-        <v>8.190288345435661</v>
+        <v>8.530811444479662</v>
       </c>
       <c r="F12">
-        <v>22.7481763198207</v>
+        <v>20.36160492308727</v>
       </c>
       <c r="G12">
-        <v>2.104432383430276</v>
+        <v>10.81188198003567</v>
       </c>
       <c r="H12">
-        <v>4.314890556993142</v>
+        <v>4.241201375813812</v>
       </c>
       <c r="I12">
-        <v>2.843351381321628</v>
+        <v>2.64084520759595</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.71790719643377</v>
+        <v>13.18496664147936</v>
       </c>
       <c r="L12">
-        <v>5.784159934674184</v>
+        <v>10.75156847539257</v>
       </c>
       <c r="M12">
-        <v>13.98634441561801</v>
+        <v>8.783301606681166</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.825979262506612</v>
       </c>
       <c r="O12">
-        <v>12.00282288199007</v>
+        <v>14.12090121470331</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.32187645468605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.15556239198986</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.4011742772524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.74891972992705</v>
+        <v>15.78465798468976</v>
       </c>
       <c r="C13">
-        <v>9.263695730018814</v>
+        <v>9.481584656091821</v>
       </c>
       <c r="D13">
-        <v>6.298029412168435</v>
+        <v>6.885495149409031</v>
       </c>
       <c r="E13">
-        <v>7.226802869202962</v>
+        <v>7.558869168005043</v>
       </c>
       <c r="F13">
-        <v>21.60178493334712</v>
+        <v>19.4002556802877</v>
       </c>
       <c r="G13">
-        <v>2.105191407540691</v>
+        <v>10.46751068693745</v>
       </c>
       <c r="H13">
-        <v>5.710156159673494</v>
+        <v>5.650578026645171</v>
       </c>
       <c r="I13">
-        <v>2.871171664203728</v>
+        <v>2.660718777728446</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.32540008390211</v>
+        <v>12.94049793043346</v>
       </c>
       <c r="L13">
-        <v>5.595295090808906</v>
+        <v>10.60476888425635</v>
       </c>
       <c r="M13">
-        <v>13.9908665421068</v>
+        <v>8.547173617190097</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.656954920002312</v>
       </c>
       <c r="O13">
-        <v>11.30458623553567</v>
+        <v>14.11765067709443</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.73354331858481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.44011919147888</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.96380603879227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.69722976275018</v>
+        <v>15.74253863067081</v>
       </c>
       <c r="C14">
-        <v>9.134059892539067</v>
+        <v>9.342388438912035</v>
       </c>
       <c r="D14">
-        <v>5.907894392039988</v>
+        <v>6.43715913238187</v>
       </c>
       <c r="E14">
-        <v>6.661649342949161</v>
+        <v>6.981111356148865</v>
       </c>
       <c r="F14">
-        <v>20.80423871152397</v>
+        <v>18.86055487965087</v>
       </c>
       <c r="G14">
-        <v>2.106194094886435</v>
+        <v>9.347319536797061</v>
       </c>
       <c r="H14">
-        <v>6.707119953474654</v>
+        <v>6.652132101363254</v>
       </c>
       <c r="I14">
-        <v>2.912537296142002</v>
+        <v>2.691123818433564</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.09334909216109</v>
+        <v>12.85427870660524</v>
       </c>
       <c r="L14">
-        <v>5.54619386740219</v>
+        <v>10.55751682323758</v>
       </c>
       <c r="M14">
-        <v>13.9118096248771</v>
+        <v>8.445149057524532</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.623155525266863</v>
       </c>
       <c r="O14">
-        <v>10.75632596334136</v>
+        <v>14.04279417708081</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.3469818243354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.87542653423198</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.7689524448147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.63337681580891</v>
+        <v>15.67989066735866</v>
       </c>
       <c r="C15">
-        <v>9.085238484077912</v>
+        <v>9.305181745403432</v>
       </c>
       <c r="D15">
-        <v>5.802165654904368</v>
+        <v>6.302612598091081</v>
       </c>
       <c r="E15">
-        <v>6.540846713763034</v>
+        <v>6.856864611635906</v>
       </c>
       <c r="F15">
-        <v>20.60526122855412</v>
+        <v>18.77690191273171</v>
       </c>
       <c r="G15">
-        <v>2.106680690044076</v>
+        <v>8.721635259189897</v>
       </c>
       <c r="H15">
-        <v>6.940674083359482</v>
+        <v>6.885483723294196</v>
       </c>
       <c r="I15">
-        <v>2.936341504871672</v>
+        <v>2.710294798576664</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.04926866513114</v>
+        <v>12.86354231073472</v>
       </c>
       <c r="L15">
-        <v>5.544460174893957</v>
+        <v>10.56529979815585</v>
       </c>
       <c r="M15">
-        <v>13.85413212741111</v>
+        <v>8.442430116734082</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.625999954139238</v>
       </c>
       <c r="O15">
-        <v>10.59885523982732</v>
+        <v>13.990411967637</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.25869209153303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.71203198238496</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.76271672137743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.15397325552632</v>
+        <v>15.19266346396292</v>
       </c>
       <c r="C16">
-        <v>8.836326912616958</v>
+        <v>9.172447051629197</v>
       </c>
       <c r="D16">
-        <v>5.700212423595382</v>
+        <v>6.080777898062767</v>
       </c>
       <c r="E16">
-        <v>6.532384134290795</v>
+        <v>6.84928521579225</v>
       </c>
       <c r="F16">
-        <v>20.64750955807733</v>
+        <v>19.25602464029599</v>
       </c>
       <c r="G16">
-        <v>2.109000423719594</v>
+        <v>6.195050635875329</v>
       </c>
       <c r="H16">
-        <v>6.754460840633395</v>
+        <v>6.686976356907254</v>
       </c>
       <c r="I16">
-        <v>3.035192991959105</v>
+        <v>2.782779336109789</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.2026823414551</v>
+        <v>13.16905320312514</v>
       </c>
       <c r="L16">
-        <v>5.532599621727919</v>
+        <v>10.77184130906817</v>
       </c>
       <c r="M16">
-        <v>13.46546831662039</v>
+        <v>8.66097684552796</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.626253896553817</v>
       </c>
       <c r="O16">
-        <v>10.38704491425969</v>
+        <v>13.63899620850386</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.36963110587332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.48459738742817</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.17047473583406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.80591035069736</v>
+        <v>14.83735782922821</v>
       </c>
       <c r="C17">
-        <v>8.715129042530128</v>
+        <v>9.126332715064166</v>
       </c>
       <c r="D17">
-        <v>5.836637726943636</v>
+        <v>6.171028785360677</v>
       </c>
       <c r="E17">
-        <v>6.804587011207067</v>
+        <v>7.12222888449073</v>
       </c>
       <c r="F17">
-        <v>21.10193508984938</v>
+        <v>19.86828028815809</v>
       </c>
       <c r="G17">
-        <v>2.110254578703547</v>
+        <v>5.549538271009254</v>
       </c>
       <c r="H17">
-        <v>6.054195576355714</v>
+        <v>5.972265477472276</v>
       </c>
       <c r="I17">
-        <v>3.089941676344008</v>
+        <v>2.824069720601083</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.43898542586813</v>
+        <v>13.44299952293937</v>
       </c>
       <c r="L17">
-        <v>5.536252018112233</v>
+        <v>10.96710363328673</v>
       </c>
       <c r="M17">
-        <v>13.20515807759476</v>
+        <v>8.864159956410829</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.63371296936067</v>
       </c>
       <c r="O17">
-        <v>10.52615460414542</v>
+        <v>13.40070372512913</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.65682562120662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.62208530762712</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.56072417901536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.54485133096061</v>
+        <v>14.56309072054567</v>
       </c>
       <c r="C18">
-        <v>8.671312052677015</v>
+        <v>9.159293193491974</v>
       </c>
       <c r="D18">
-        <v>6.191332002486964</v>
+        <v>6.51272095435452</v>
       </c>
       <c r="E18">
-        <v>7.470852454891533</v>
+        <v>7.77856132876974</v>
       </c>
       <c r="F18">
-        <v>21.99280940318183</v>
+        <v>20.78458323135654</v>
       </c>
       <c r="G18">
-        <v>2.110663848609988</v>
+        <v>5.383952712386558</v>
       </c>
       <c r="H18">
-        <v>4.868169389807155</v>
+        <v>4.763690887629482</v>
       </c>
       <c r="I18">
-        <v>3.101286094724066</v>
+        <v>2.828378421959484</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.79861870705197</v>
+        <v>13.77636935067117</v>
       </c>
       <c r="L18">
-        <v>5.630721188062536</v>
+        <v>11.20962576016029</v>
       </c>
       <c r="M18">
-        <v>13.0278064422833</v>
+        <v>9.122906511928482</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.724741803959797</v>
       </c>
       <c r="O18">
-        <v>10.9808937933607</v>
+        <v>13.24096996867778</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16.14971425456621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.0858111211484</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.06343720490079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36567862216341</v>
+        <v>14.36528320045033</v>
       </c>
       <c r="C19">
-        <v>8.743483362452544</v>
+        <v>9.31467129333414</v>
       </c>
       <c r="D19">
-        <v>6.704250726059856</v>
+        <v>7.030553108015979</v>
       </c>
       <c r="E19">
-        <v>8.532553262973391</v>
+        <v>8.822082878396097</v>
       </c>
       <c r="F19">
-        <v>23.14320176282572</v>
+        <v>21.88611413270808</v>
       </c>
       <c r="G19">
-        <v>2.110325102860653</v>
+        <v>5.294904701685306</v>
       </c>
       <c r="H19">
-        <v>3.502568796192316</v>
+        <v>3.361056927234164</v>
       </c>
       <c r="I19">
-        <v>3.093570232394469</v>
+        <v>2.823741611623176</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.22203735928748</v>
+        <v>14.13586632294517</v>
       </c>
       <c r="L19">
-        <v>5.895338494266178</v>
+        <v>11.47168149454514</v>
       </c>
       <c r="M19">
-        <v>12.94257885890992</v>
+        <v>9.410297558795937</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.978408047372649</v>
       </c>
       <c r="O19">
-        <v>11.65705438740405</v>
+        <v>13.17056841878854</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.75355403365391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.77758346760587</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.62500696458562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.45354023770675</v>
+        <v>14.41802648172545</v>
       </c>
       <c r="C20">
-        <v>9.044305717852545</v>
+        <v>9.716969128491822</v>
       </c>
       <c r="D20">
-        <v>7.596175274340726</v>
+        <v>7.977216430652728</v>
       </c>
       <c r="E20">
-        <v>10.47288910585087</v>
+        <v>10.74285875397289</v>
       </c>
       <c r="F20">
-        <v>25.03855745452341</v>
+        <v>23.5140963789464</v>
       </c>
       <c r="G20">
-        <v>2.107887182176011</v>
+        <v>5.318435824360213</v>
       </c>
       <c r="H20">
-        <v>2.163378427086608</v>
+        <v>1.970938444354803</v>
       </c>
       <c r="I20">
-        <v>2.998880736706355</v>
+        <v>2.751569711487058</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.85589773603508</v>
+        <v>14.57701293912697</v>
       </c>
       <c r="L20">
-        <v>6.561981766217256</v>
+        <v>11.7648684590816</v>
       </c>
       <c r="M20">
-        <v>13.10567395414742</v>
+        <v>9.814676616566773</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.613653785095451</v>
       </c>
       <c r="O20">
-        <v>12.8836276413006</v>
+        <v>13.3414330611265</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.69986593177399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.03629131306977</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.36862370207921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.2729747712894</v>
+        <v>15.24588672242644</v>
       </c>
       <c r="C21">
-        <v>9.551081975033094</v>
+        <v>10.00877919986694</v>
       </c>
       <c r="D21">
-        <v>8.020616194173446</v>
+        <v>8.674806017568084</v>
       </c>
       <c r="E21">
-        <v>11.03525158455481</v>
+        <v>11.37445006656259</v>
       </c>
       <c r="F21">
-        <v>25.61937698875236</v>
+        <v>22.97822736953054</v>
       </c>
       <c r="G21">
-        <v>2.103372303351996</v>
+        <v>10.54380209849644</v>
       </c>
       <c r="H21">
-        <v>1.889795992943841</v>
+        <v>1.743549096572533</v>
       </c>
       <c r="I21">
-        <v>2.814299516951055</v>
+        <v>2.623222399169931</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.83434415835089</v>
+        <v>14.01062255919623</v>
       </c>
       <c r="L21">
-        <v>6.74551582293139</v>
+        <v>11.29134077184266</v>
       </c>
       <c r="M21">
-        <v>13.79728177071392</v>
+        <v>9.500075604275352</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.744291707811739</v>
       </c>
       <c r="O21">
-        <v>13.58440107379974</v>
+        <v>13.96155817135781</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.8594982959451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.77200835137638</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.70602161419322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.79989968524929</v>
+        <v>15.78355552478886</v>
       </c>
       <c r="C22">
-        <v>9.836055139199615</v>
+        <v>10.13953398921469</v>
       </c>
       <c r="D22">
-        <v>8.246334669608288</v>
+        <v>9.090157342407535</v>
       </c>
       <c r="E22">
-        <v>11.30199603499995</v>
+        <v>11.69557507269788</v>
       </c>
       <c r="F22">
-        <v>25.9481582372546</v>
+        <v>22.52550301911841</v>
       </c>
       <c r="G22">
-        <v>2.100516483501011</v>
+        <v>15.21957036858857</v>
       </c>
       <c r="H22">
-        <v>1.728868122051287</v>
+        <v>1.611045672349394</v>
       </c>
       <c r="I22">
-        <v>2.686533525413324</v>
+        <v>2.527093384005949</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.8154892226074</v>
+        <v>13.6174219297482</v>
       </c>
       <c r="L22">
-        <v>6.829129277387961</v>
+        <v>10.99172333034273</v>
       </c>
       <c r="M22">
-        <v>14.22883122920775</v>
+        <v>9.264911669416833</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.79434718764616</v>
       </c>
       <c r="O22">
-        <v>13.97464955520033</v>
+        <v>14.3452501513446</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.94858889478293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.18361393676385</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.2194111735999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.52822077566071</v>
+        <v>15.49985986212996</v>
       </c>
       <c r="C23">
-        <v>9.656584241672729</v>
+        <v>10.07604457392558</v>
       </c>
       <c r="D23">
-        <v>8.119749021732614</v>
+        <v>8.832953485413739</v>
       </c>
       <c r="E23">
-        <v>11.15904123258296</v>
+        <v>11.5125431897132</v>
       </c>
       <c r="F23">
-        <v>25.80268484190104</v>
+        <v>22.91119776303572</v>
       </c>
       <c r="G23">
-        <v>2.10201822605093</v>
+        <v>11.9211849721565</v>
       </c>
       <c r="H23">
-        <v>1.813772929980241</v>
+        <v>1.679238490880145</v>
       </c>
       <c r="I23">
-        <v>2.742513545207732</v>
+        <v>2.561969497279586</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.84814861959721</v>
+        <v>13.89766557175367</v>
       </c>
       <c r="L23">
-        <v>6.786142504577211</v>
+        <v>11.19360294119409</v>
       </c>
       <c r="M23">
-        <v>13.9952632128177</v>
+        <v>9.454632204600882</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.772540849184659</v>
       </c>
       <c r="O23">
-        <v>13.76289107846486</v>
+        <v>14.14488990316125</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.92356068559178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.95882348989121</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.58424363195879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.43954596164656</v>
+        <v>14.40157146942068</v>
       </c>
       <c r="C24">
-        <v>9.000635949221168</v>
+        <v>9.683185931938519</v>
       </c>
       <c r="D24">
-        <v>7.63591747898855</v>
+        <v>8.016397788625877</v>
       </c>
       <c r="E24">
-        <v>10.60386025492319</v>
+        <v>10.87209977556231</v>
       </c>
       <c r="F24">
-        <v>25.21186278864321</v>
+        <v>23.68659697002683</v>
       </c>
       <c r="G24">
-        <v>2.10784318643742</v>
+        <v>5.285568640044202</v>
       </c>
       <c r="H24">
-        <v>2.143493877064696</v>
+        <v>1.950462100487606</v>
       </c>
       <c r="I24">
-        <v>2.980323359924895</v>
+        <v>2.728677044559639</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.9438712439414</v>
+        <v>14.65675063085387</v>
       </c>
       <c r="L24">
-        <v>6.617615476074189</v>
+        <v>11.8233551970903</v>
       </c>
       <c r="M24">
-        <v>13.08257439866346</v>
+        <v>9.877636372854841</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.668039170091414</v>
       </c>
       <c r="O24">
-        <v>12.94080927806283</v>
+        <v>13.32048136176524</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.80470331160055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.09507997275955</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.47151228329123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.16224165923173</v>
+        <v>13.18258442416634</v>
       </c>
       <c r="C25">
-        <v>8.247184541784229</v>
+        <v>8.821088634386591</v>
       </c>
       <c r="D25">
-        <v>7.082503792593017</v>
+        <v>7.432262455068285</v>
       </c>
       <c r="E25">
-        <v>9.972478234023372</v>
+        <v>10.26757272973713</v>
       </c>
       <c r="F25">
-        <v>24.59611509805832</v>
+        <v>23.24246967760082</v>
       </c>
       <c r="G25">
-        <v>2.114372371793513</v>
+        <v>5.859829973527372</v>
       </c>
       <c r="H25">
-        <v>2.514959860527068</v>
+        <v>2.283424520192416</v>
       </c>
       <c r="I25">
-        <v>3.250610865982714</v>
+        <v>2.946111115529688</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.06686638507402</v>
+        <v>14.87173123712961</v>
       </c>
       <c r="L25">
-        <v>6.42896238388574</v>
+        <v>12.12113014592311</v>
       </c>
       <c r="M25">
-        <v>12.02185500748609</v>
+        <v>9.846731396898297</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.508321021711986</v>
       </c>
       <c r="O25">
-        <v>11.99688358626221</v>
+        <v>12.26695875335785</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.70437791405836</v>
+        <v>12.12397830816796</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.48031060747382</v>
       </c>
     </row>
   </sheetData>
